--- a/Assets/StreamingAssets/CurlingArena_data/xlsx/SynergyDB/SynergyDB_0.xlsx
+++ b/Assets/StreamingAssets/CurlingArena_data/xlsx/SynergyDB/SynergyDB_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\902_j\Desktop\project\컬링\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\all\github\CurlingArena\CurlingArena\Assets\StreamingAssets\CurlingArena_data\xlsx\SynergyDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415B980F-1B8C-4FA6-B7B5-97C937FFC64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D9D3B-75C5-4386-A7F8-A5A02EBD5E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2190" windowWidth="26235" windowHeight="12735" xr2:uid="{093E1610-6C19-4D03-A9E2-F412B738754D}"/>
+    <workbookView xWindow="2145" yWindow="675" windowWidth="25425" windowHeight="13830" activeTab="1" xr2:uid="{093E1610-6C19-4D03-A9E2-F412B738754D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,30 +185,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>typeNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +206,46 @@
   </si>
   <si>
     <t>defenceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speciesType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,25 +624,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4B72B-5B68-4C38-B8BA-D63A87820554}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="69.375" customWidth="1"/>
-    <col min="10" max="10" width="79.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,28 +651,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -655,28 +686,34 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>0.05</v>
-      </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0.05</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -684,28 +721,34 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
-      <c r="G3">
-        <v>0.05</v>
-      </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -713,28 +756,34 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -742,28 +791,34 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -771,28 +826,34 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -800,28 +861,34 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>0.05</v>
-      </c>
-      <c r="G7">
-        <v>0.05</v>
-      </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -829,28 +896,34 @@
         <v>10</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>0.05</v>
-      </c>
-      <c r="G8">
-        <v>0.05</v>
-      </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.05</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -858,28 +931,34 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -887,28 +966,34 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.1</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -916,28 +1001,34 @@
         <v>13</v>
       </c>
       <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>0.05</v>
-      </c>
-      <c r="G11">
-        <v>0.05</v>
-      </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I11">
+        <v>0.05</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -945,28 +1036,34 @@
         <v>14</v>
       </c>
       <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>0.05</v>
-      </c>
-      <c r="G12">
-        <v>0.05</v>
-      </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -974,28 +1071,34 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="F13">
-        <v>0.05</v>
-      </c>
-      <c r="G13">
-        <v>0.05</v>
-      </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1003,28 +1106,34 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
-      <c r="G14">
-        <v>0.05</v>
-      </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I14">
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1032,28 +1141,34 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.1</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1061,28 +1176,34 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>0.1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1090,28 +1211,34 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0.1</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1119,24 +1246,30 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0.1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1149,104 +1282,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CB0265-D89F-40B8-8038-E52AFE5913EB}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
+      <c r="H5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
